--- a/JEFF_WORLEY.xlsx
+++ b/JEFF_WORLEY.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t xml:space="preserve">Delivery</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Breed</t>
   </si>
   <si>
+    <t xml:space="preserve">3bMonday</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bMonday</t>
   </si>
   <si>
@@ -95,46 +98,58 @@
     <t xml:space="preserve">MWF</t>
   </si>
   <si>
+    <t xml:space="preserve">Batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOYKIN LAKE SOW FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910-529-1858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1311 189 EBENEEZER FORREST RD, GARLAND, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP-East Commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORLEY, JEFFERY D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPG240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28472222222222221</t>
+  </si>
+  <si>
     <t xml:space="preserve">Weekly</t>
   </si>
   <si>
-    <t xml:space="preserve">BOYKIN LAKE SOW FARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-529-1858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1311 189 EBENEEZER FORREST RD, GARLAND, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHP-Central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WORLEY, JEFFERY D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-271-1171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPG240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00AM</t>
+    <t xml:space="preserve">FUNSTON FARMS 38671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910-253-7070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1518, 7810-A DAWS CREEK RD, WINNABOW, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37847222222222227</t>
   </si>
   <si>
     <t xml:space="preserve">THS</t>
   </si>
   <si>
-    <t xml:space="preserve">Batch</t>
-  </si>
-  <si>
     <t xml:space="preserve">HAIRR 2 SOW</t>
   </si>
   <si>
+    <t xml:space="preserve">910-283-7317</t>
+  </si>
+  <si>
     <t xml:space="preserve">1397 FOX PEN RD, IVANHOE, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26527777777777778</t>
+    <t xml:space="preserve">0.20138888888888887</t>
   </si>
   <si>
     <t xml:space="preserve">MAGNOLIA 1 SOW</t>
@@ -143,7 +158,7 @@
     <t xml:space="preserve">SR 1114, 865 ISHAM FREDRICK RD, MAGNOLIA, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30416666666666664</t>
+    <t xml:space="preserve">0.33888888888888885</t>
   </si>
   <si>
     <t xml:space="preserve">MAGNOLIA 2 SOW</t>
@@ -152,7 +167,7 @@
     <t xml:space="preserve">SR 1114, 971 ISHAM FREDRICK RD, WARSAW, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31041666666666667</t>
+    <t xml:space="preserve">0.34236111111111112</t>
   </si>
   <si>
     <t xml:space="preserve">OAK GROVE SOW</t>
@@ -164,7 +179,7 @@
     <t xml:space="preserve">622 OLD CAMP RD, WALLACE, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18888888888888888</t>
+    <t xml:space="preserve">0.15625</t>
   </si>
   <si>
     <t xml:space="preserve">PETERS CREEK SOW</t>
@@ -176,7 +191,19 @@
     <t xml:space="preserve">SR 2048, 329 COUNTY LINE RD, ROSEBORO, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42708333333333331</t>
+    <t xml:space="preserve">0.28333333333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHILLIPS PARTNERS (FARM 2803)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910-285-7147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1308, 526 TEST FARM RD, WALLACE, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34722222222222227</t>
   </si>
   <si>
     <t xml:space="preserve">TAYLOR'S BRIDGE SOW</t>
@@ -188,16 +215,7 @@
     <t xml:space="preserve">1573 TRINITY CHURCH RD, MAGNOLIA, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TURNER SOW FARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1300, 160 FARROWWOOD LN, WARSAW, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17222222222222225</t>
+    <t xml:space="preserve">0.24236111111111111</t>
   </si>
 </sst>
 </file>
@@ -534,34 +552,35 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="14.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="24.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="29.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="12.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="45.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="12.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="18.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="18.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="17.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="16.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="6.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="9.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="9.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="11.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="9.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="11.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="11.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="10.71" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="8.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="10.71" hidden="0" customWidth="1"/>
     <col min="20" max="20" width="8.71" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="10.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="8.71" hidden="0" customWidth="1"/>
     <col min="22" max="22" width="10.71" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="5.71" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="11.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="19.71" hidden="0" customWidth="1"/>
-    <col min="26" max="26" width="8.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="10.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="5.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="11.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="19.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="8.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -643,492 +662,552 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>7093</v>
+        <v>7094</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
         <v>6352</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
         <v>33</v>
       </c>
+      <c r="J2"/>
       <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M2"/>
+      <c r="L2"/>
+      <c r="M2" t="n">
+        <v>50</v>
+      </c>
       <c r="N2"/>
       <c r="O2"/>
-      <c r="P2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q2"/>
+      <c r="P2"/>
+      <c r="Q2" t="n">
+        <v>250</v>
+      </c>
       <c r="R2"/>
       <c r="S2"/>
-      <c r="T2" t="n">
-        <v>106</v>
-      </c>
-      <c r="U2"/>
+      <c r="T2"/>
+      <c r="U2" t="n">
+        <v>708</v>
+      </c>
       <c r="V2"/>
-      <c r="W2" t="n">
-        <v>246</v>
-      </c>
+      <c r="W2"/>
       <c r="X2" t="n">
-        <v>2.13913043478261</v>
-      </c>
-      <c r="Y2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9.42056074766355</v>
+      </c>
+      <c r="Z2" t="s">
         <v>35</v>
       </c>
-      <c r="Z2"/>
+      <c r="AA2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7092</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="n">
-        <v>7093</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="n">
+        <v>5593</v>
+      </c>
+      <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="n">
-        <v>2221</v>
-      </c>
-      <c r="F3"/>
       <c r="G3" t="s">
         <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
         <v>33</v>
       </c>
+      <c r="J3"/>
       <c r="K3" t="s">
         <v>34</v>
       </c>
       <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3" t="n">
-        <v>500</v>
-      </c>
+      <c r="M3" t="n">
+        <v>128</v>
+      </c>
+      <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3" t="n">
-        <v>520</v>
-      </c>
+      <c r="Q3" t="n">
+        <v>125</v>
+      </c>
+      <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3" t="n">
-        <v>400</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1420</v>
-      </c>
+      <c r="U3" t="n">
+        <v>135</v>
+      </c>
+      <c r="V3"/>
+      <c r="W3"/>
       <c r="X3" t="n">
-        <v>2.02567760342368</v>
-      </c>
-      <c r="Y3" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.57723577235772</v>
+      </c>
+      <c r="Z3" t="s">
         <v>40</v>
       </c>
-      <c r="Z3"/>
+      <c r="AA3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B4" t="n">
         <v>7093</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" t="n">
-        <v>2353</v>
-      </c>
-      <c r="F4"/>
+        <v>2221</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
         <v>33</v>
       </c>
+      <c r="J4"/>
       <c r="K4" t="s">
         <v>34</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
-      <c r="N4" t="n">
-        <v>40</v>
-      </c>
-      <c r="O4"/>
+      <c r="N4"/>
+      <c r="O4" t="n">
+        <v>180</v>
+      </c>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4" t="n">
-        <v>55</v>
-      </c>
-      <c r="S4"/>
+      <c r="R4"/>
+      <c r="S4" t="n">
+        <v>570</v>
+      </c>
       <c r="T4"/>
       <c r="U4"/>
-      <c r="V4" t="n">
-        <v>161</v>
-      </c>
+      <c r="V4"/>
       <c r="W4" t="n">
-        <v>256</v>
+        <v>600</v>
       </c>
       <c r="X4" t="n">
-        <v>2.11570247933884</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z4"/>
+        <v>1350</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2.00892857142857</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7068</v>
+      </c>
+      <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="n">
-        <v>7093</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5" t="n">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
         <v>33</v>
       </c>
+      <c r="J5"/>
       <c r="K5" t="s">
         <v>34</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
-      <c r="N5" t="n">
-        <v>40</v>
-      </c>
-      <c r="O5"/>
+      <c r="N5"/>
+      <c r="O5" t="n">
+        <v>130</v>
+      </c>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5" t="n">
-        <v>55</v>
-      </c>
-      <c r="S5"/>
+      <c r="R5"/>
+      <c r="S5" t="n">
+        <v>30</v>
+      </c>
       <c r="T5"/>
       <c r="U5"/>
-      <c r="V5" t="n">
-        <v>161</v>
-      </c>
+      <c r="V5"/>
       <c r="W5" t="n">
-        <v>256</v>
+        <v>92</v>
       </c>
       <c r="X5" t="n">
-        <v>2.11570247933884</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z5"/>
+        <v>252</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.54545454545455</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7068</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="n">
-        <v>7081</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" t="n">
-        <v>68101</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
+        <v>2354</v>
+      </c>
+      <c r="F6"/>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
         <v>33</v>
       </c>
+      <c r="J6"/>
       <c r="K6" t="s">
         <v>34</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
-      <c r="N6" t="n">
-        <v>110</v>
-      </c>
-      <c r="O6"/>
+      <c r="N6"/>
+      <c r="O6" t="n">
+        <v>160</v>
+      </c>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6" t="n">
-        <v>50</v>
-      </c>
-      <c r="S6"/>
+      <c r="R6"/>
+      <c r="S6" t="n">
+        <v>42</v>
+      </c>
       <c r="T6"/>
       <c r="U6"/>
-      <c r="V6" t="n">
+      <c r="V6"/>
+      <c r="W6" t="n">
         <v>50</v>
       </c>
-      <c r="W6" t="n">
-        <v>210</v>
-      </c>
       <c r="X6" t="n">
+        <v>252</v>
+      </c>
+      <c r="Y6" t="n">
         <v>2.33333333333333</v>
       </c>
-      <c r="Y6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6"/>
+      <c r="Z6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n">
-        <v>7093</v>
+        <v>7081</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" t="n">
-        <v>2453</v>
+        <v>68101</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
         <v>33</v>
       </c>
+      <c r="J7"/>
       <c r="K7" t="s">
         <v>34</v>
       </c>
-      <c r="L7" t="n">
-        <v>350</v>
-      </c>
+      <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7" t="n">
-        <v>450</v>
-      </c>
+      <c r="O7" t="n">
+        <v>110</v>
+      </c>
+      <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7" t="n">
-        <v>650</v>
-      </c>
+      <c r="S7" t="n">
+        <v>40</v>
+      </c>
+      <c r="T7"/>
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7" t="n">
-        <v>1450</v>
-      </c>
-      <c r="X7"/>
-      <c r="Y7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z7"/>
+        <v>40</v>
+      </c>
+      <c r="X7" t="n">
+        <v>190</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.86274509803922</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="n">
-        <v>7092</v>
+        <v>7094</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" t="n">
-        <v>2809</v>
+        <v>2453</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
         <v>33</v>
       </c>
+      <c r="J8"/>
       <c r="K8" t="s">
         <v>34</v>
       </c>
-      <c r="L8" t="n">
-        <v>132</v>
-      </c>
-      <c r="M8"/>
+      <c r="L8"/>
+      <c r="M8" t="n">
+        <v>150</v>
+      </c>
       <c r="N8"/>
       <c r="O8"/>
-      <c r="P8" t="n">
-        <v>108</v>
-      </c>
-      <c r="Q8"/>
+      <c r="P8"/>
+      <c r="Q8" t="n">
+        <v>400</v>
+      </c>
       <c r="R8"/>
       <c r="S8"/>
-      <c r="T8" t="n">
-        <v>247</v>
-      </c>
-      <c r="U8"/>
+      <c r="T8"/>
+      <c r="U8" t="n">
+        <v>800</v>
+      </c>
       <c r="V8"/>
-      <c r="W8" t="n">
-        <v>487</v>
-      </c>
+      <c r="W8"/>
       <c r="X8" t="n">
-        <v>2.17410714285714</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z8"/>
+        <v>1350</v>
+      </c>
+      <c r="Y8"/>
+      <c r="Z8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7094</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="n">
-        <v>7092</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" t="n">
-        <v>3851</v>
-      </c>
-      <c r="F9"/>
+        <v>28031</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" t="s">
         <v>33</v>
       </c>
+      <c r="J9"/>
       <c r="K9" t="s">
         <v>34</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
-      <c r="N9" t="n">
-        <v>138</v>
-      </c>
-      <c r="O9"/>
+      <c r="N9"/>
+      <c r="O9" t="n">
+        <v>160</v>
+      </c>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9" t="n">
-        <v>128</v>
-      </c>
-      <c r="S9"/>
+      <c r="R9"/>
+      <c r="S9" t="n">
+        <v>37</v>
+      </c>
       <c r="T9"/>
       <c r="U9"/>
-      <c r="V9" t="n">
-        <v>360</v>
-      </c>
+      <c r="V9"/>
       <c r="W9" t="n">
-        <v>626</v>
+        <v>55</v>
       </c>
       <c r="X9" t="n">
-        <v>2.01935483870968</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z9"/>
+        <v>252</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2.5979381443299</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7092</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2809</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10" t="n">
+        <v>300</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10" t="n">
+        <v>72</v>
+      </c>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10" t="n">
+        <v>100</v>
+      </c>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10" t="n">
+        <v>472</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.15525114155251</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
